--- a/fold_2 differentially_expressed_protein.xlsx
+++ b/fold_2 differentially_expressed_protein.xlsx
@@ -10,15 +10,16 @@
     <sheet name="Diff distribution" sheetId="1" r:id="rId1"/>
     <sheet name="S1vsS2" sheetId="2" r:id="rId2"/>
     <sheet name="S1vsS3" sheetId="3" r:id="rId3"/>
-    <sheet name="SAvsSB" sheetId="4" r:id="rId4"/>
-    <sheet name="SDvsSE" sheetId="5" r:id="rId5"/>
+    <sheet name="S2vsS1" sheetId="4" r:id="rId4"/>
+    <sheet name="SAvsSB" sheetId="5" r:id="rId5"/>
+    <sheet name="SDvsSE" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="376">
   <si>
     <t>Compared sample name</t>
   </si>
@@ -1029,6 +1030,15 @@
   </si>
   <si>
     <t>RRBP1</t>
+  </si>
+  <si>
+    <t>S2/S1</t>
+  </si>
+  <si>
+    <t>S2/S1 Ratio</t>
+  </si>
+  <si>
+    <t>S2/S1 P value</t>
   </si>
   <si>
     <t>SA/SB</t>
@@ -1494,7 +1504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1538,20 +1548,31 @@
         <v>337</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>7</v>
       </c>
     </row>
@@ -1686,7 +1707,7 @@
         <v>2.587</v>
       </c>
       <c r="S2">
-        <v>0.0004107764</v>
+        <v>0.000411</v>
       </c>
       <c r="T2" t="s">
         <v>155</v>
@@ -1748,7 +1769,7 @@
         <v>0.387</v>
       </c>
       <c r="S3">
-        <v>0.0006841719</v>
+        <v>0.000684</v>
       </c>
       <c r="T3" t="s">
         <v>156</v>
@@ -1810,7 +1831,7 @@
         <v>0.241</v>
       </c>
       <c r="S4">
-        <v>0.0002818283</v>
+        <v>0.000282</v>
       </c>
       <c r="T4" t="s">
         <v>156</v>
@@ -1872,7 +1893,7 @@
         <v>3.013</v>
       </c>
       <c r="S5">
-        <v>0.001094988</v>
+        <v>0.00109</v>
       </c>
       <c r="T5" t="s">
         <v>155</v>
@@ -1934,7 +1955,7 @@
         <v>0.477</v>
       </c>
       <c r="S6">
-        <v>0.0008162458999999999</v>
+        <v>0.000816</v>
       </c>
       <c r="T6" t="s">
         <v>156</v>
@@ -1996,7 +2017,7 @@
         <v>3.229</v>
       </c>
       <c r="S7">
-        <v>0.008668894</v>
+        <v>0.008670000000000001</v>
       </c>
       <c r="T7" t="s">
         <v>155</v>
@@ -2058,7 +2079,7 @@
         <v>2.156</v>
       </c>
       <c r="S8">
-        <v>0.009886529999999999</v>
+        <v>0.009890000000000001</v>
       </c>
       <c r="T8" t="s">
         <v>155</v>
@@ -2120,7 +2141,7 @@
         <v>2.574</v>
       </c>
       <c r="S9">
-        <v>0.005798306</v>
+        <v>0.0058</v>
       </c>
       <c r="T9" t="s">
         <v>155</v>
@@ -2182,7 +2203,7 @@
         <v>0.308</v>
       </c>
       <c r="S10">
-        <v>0.0003712793</v>
+        <v>0.000371</v>
       </c>
       <c r="T10" t="s">
         <v>156</v>
@@ -2244,7 +2265,7 @@
         <v>0.464</v>
       </c>
       <c r="S11">
-        <v>0.04098567</v>
+        <v>0.041</v>
       </c>
       <c r="T11" t="s">
         <v>156</v>
@@ -2306,7 +2327,7 @@
         <v>0.32</v>
       </c>
       <c r="S12">
-        <v>0.0006750729</v>
+        <v>0.000675</v>
       </c>
       <c r="T12" t="s">
         <v>156</v>
@@ -2368,7 +2389,7 @@
         <v>0.333</v>
       </c>
       <c r="S13">
-        <v>2.023617e-15</v>
+        <v>2.02e-15</v>
       </c>
       <c r="T13" t="s">
         <v>156</v>
@@ -2430,7 +2451,7 @@
         <v>2.669</v>
       </c>
       <c r="S14">
-        <v>0.046844</v>
+        <v>0.0468</v>
       </c>
       <c r="T14" t="s">
         <v>155</v>
@@ -2492,7 +2513,7 @@
         <v>0.442</v>
       </c>
       <c r="S15">
-        <v>4.115166e-08</v>
+        <v>4.12e-08</v>
       </c>
       <c r="T15" t="s">
         <v>156</v>
@@ -2554,7 +2575,7 @@
         <v>2.09</v>
       </c>
       <c r="S16">
-        <v>6.543441999999999e-07</v>
+        <v>6.54e-07</v>
       </c>
       <c r="T16" t="s">
         <v>155</v>
@@ -2616,7 +2637,7 @@
         <v>2.115</v>
       </c>
       <c r="S17">
-        <v>0.0001382699</v>
+        <v>0.000138</v>
       </c>
       <c r="T17" t="s">
         <v>155</v>
@@ -2678,7 +2699,7 @@
         <v>0.416</v>
       </c>
       <c r="S18">
-        <v>3.553502e-18</v>
+        <v>3.55e-18</v>
       </c>
       <c r="T18" t="s">
         <v>156</v>
@@ -2740,7 +2761,7 @@
         <v>2.567</v>
       </c>
       <c r="S19">
-        <v>0.01024678</v>
+        <v>0.0102</v>
       </c>
       <c r="T19" t="s">
         <v>155</v>
@@ -2802,7 +2823,7 @@
         <v>0.431</v>
       </c>
       <c r="S20">
-        <v>0.04039812</v>
+        <v>0.0404</v>
       </c>
       <c r="T20" t="s">
         <v>156</v>
@@ -2864,7 +2885,7 @@
         <v>0.409</v>
       </c>
       <c r="S21">
-        <v>0.00732947</v>
+        <v>0.00733</v>
       </c>
       <c r="T21" t="s">
         <v>156</v>
@@ -2926,7 +2947,7 @@
         <v>0.4970000000000001</v>
       </c>
       <c r="S22">
-        <v>5.372046000000001e-22</v>
+        <v>5.37e-22</v>
       </c>
       <c r="T22" t="s">
         <v>156</v>
@@ -2988,7 +3009,7 @@
         <v>0.291</v>
       </c>
       <c r="S23">
-        <v>0.02603237</v>
+        <v>0.026</v>
       </c>
       <c r="T23" t="s">
         <v>156</v>
@@ -3050,7 +3071,7 @@
         <v>0.251</v>
       </c>
       <c r="S24">
-        <v>0.0001843499</v>
+        <v>0.000184</v>
       </c>
       <c r="T24" t="s">
         <v>156</v>
@@ -3112,7 +3133,7 @@
         <v>0.473</v>
       </c>
       <c r="S25">
-        <v>0.0006638859</v>
+        <v>0.000664</v>
       </c>
       <c r="T25" t="s">
         <v>156</v>
@@ -3174,7 +3195,7 @@
         <v>0.126</v>
       </c>
       <c r="S26">
-        <v>1.943743e-06</v>
+        <v>1.94e-06</v>
       </c>
       <c r="T26" t="s">
         <v>156</v>
@@ -3236,7 +3257,7 @@
         <v>2.301</v>
       </c>
       <c r="S27">
-        <v>0.02449234</v>
+        <v>0.0245</v>
       </c>
       <c r="T27" t="s">
         <v>155</v>
@@ -3298,7 +3319,7 @@
         <v>0.467</v>
       </c>
       <c r="S28">
-        <v>0.04763868</v>
+        <v>0.0476</v>
       </c>
       <c r="T28" t="s">
         <v>156</v>
@@ -3360,7 +3381,7 @@
         <v>2.06</v>
       </c>
       <c r="S29">
-        <v>2.956991e-05</v>
+        <v>2.96e-05</v>
       </c>
       <c r="T29" t="s">
         <v>155</v>
@@ -3422,7 +3443,7 @@
         <v>0.283</v>
       </c>
       <c r="S30">
-        <v>4.495935000000001e-05</v>
+        <v>4.5e-05</v>
       </c>
       <c r="T30" t="s">
         <v>156</v>
@@ -3484,7 +3505,7 @@
         <v>0.44</v>
       </c>
       <c r="S31">
-        <v>8.544755e-14</v>
+        <v>8.539999999999999e-14</v>
       </c>
       <c r="T31" t="s">
         <v>156</v>
@@ -3546,7 +3567,7 @@
         <v>2.08</v>
       </c>
       <c r="S32">
-        <v>0.01263724</v>
+        <v>0.0126</v>
       </c>
       <c r="T32" t="s">
         <v>155</v>
@@ -3608,7 +3629,7 @@
         <v>2.228</v>
       </c>
       <c r="S33">
-        <v>0.0001464266</v>
+        <v>0.000146</v>
       </c>
       <c r="T33" t="s">
         <v>155</v>
@@ -3670,7 +3691,7 @@
         <v>0.415</v>
       </c>
       <c r="S34">
-        <v>0.0354295</v>
+        <v>0.0354</v>
       </c>
       <c r="T34" t="s">
         <v>156</v>
@@ -3732,7 +3753,7 @@
         <v>0.237</v>
       </c>
       <c r="S35">
-        <v>0.0007284927000000001</v>
+        <v>0.000728</v>
       </c>
       <c r="T35" t="s">
         <v>156</v>
@@ -3794,7 +3815,7 @@
         <v>0.243</v>
       </c>
       <c r="S36">
-        <v>0.007690966</v>
+        <v>0.007690000000000001</v>
       </c>
       <c r="T36" t="s">
         <v>156</v>
@@ -3856,7 +3877,7 @@
         <v>0.284</v>
       </c>
       <c r="S37">
-        <v>0.002697917</v>
+        <v>0.0027</v>
       </c>
       <c r="T37" t="s">
         <v>156</v>
@@ -3918,7 +3939,7 @@
         <v>0.322</v>
       </c>
       <c r="S38">
-        <v>7.87557e-13</v>
+        <v>7.879999999999999e-13</v>
       </c>
       <c r="T38" t="s">
         <v>156</v>
@@ -3980,7 +4001,7 @@
         <v>2.187</v>
       </c>
       <c r="S39">
-        <v>0.00192883</v>
+        <v>0.00193</v>
       </c>
       <c r="T39" t="s">
         <v>155</v>
@@ -4042,7 +4063,7 @@
         <v>0.311</v>
       </c>
       <c r="S40">
-        <v>0.006714775</v>
+        <v>0.00671</v>
       </c>
       <c r="T40" t="s">
         <v>156</v>
@@ -4104,7 +4125,7 @@
         <v>0.312</v>
       </c>
       <c r="S41">
-        <v>6.335136e-05</v>
+        <v>6.34e-05</v>
       </c>
       <c r="T41" t="s">
         <v>156</v>
@@ -4166,7 +4187,7 @@
         <v>2.128</v>
       </c>
       <c r="S42">
-        <v>0.005072008</v>
+        <v>0.00507</v>
       </c>
       <c r="T42" t="s">
         <v>155</v>
@@ -4228,7 +4249,7 @@
         <v>0.47</v>
       </c>
       <c r="S43">
-        <v>0.002026944</v>
+        <v>0.00203</v>
       </c>
       <c r="T43" t="s">
         <v>156</v>
@@ -4290,7 +4311,7 @@
         <v>0.366</v>
       </c>
       <c r="S44">
-        <v>0.0106247</v>
+        <v>0.0106</v>
       </c>
       <c r="T44" t="s">
         <v>156</v>
@@ -4352,7 +4373,7 @@
         <v>0.472</v>
       </c>
       <c r="S45">
-        <v>1.90327e-21</v>
+        <v>1.9e-21</v>
       </c>
       <c r="T45" t="s">
         <v>156</v>
@@ -4489,7 +4510,7 @@
         <v>0.485</v>
       </c>
       <c r="S2">
-        <v>0.0002188977</v>
+        <v>0.000219</v>
       </c>
       <c r="T2" t="s">
         <v>156</v>
@@ -4527,7 +4548,7 @@
         <v>0.22</v>
       </c>
       <c r="S3">
-        <v>0.002782996</v>
+        <v>0.00278</v>
       </c>
       <c r="T3" t="s">
         <v>156</v>
@@ -4589,7 +4610,7 @@
         <v>0.495</v>
       </c>
       <c r="S4">
-        <v>0.01962013</v>
+        <v>0.0196</v>
       </c>
       <c r="T4" t="s">
         <v>156</v>
@@ -4651,7 +4672,7 @@
         <v>3.444</v>
       </c>
       <c r="S5">
-        <v>0.003110589</v>
+        <v>0.00311</v>
       </c>
       <c r="T5" t="s">
         <v>155</v>
@@ -4713,7 +4734,7 @@
         <v>2.562</v>
       </c>
       <c r="S6">
-        <v>0.03591392</v>
+        <v>0.0359</v>
       </c>
       <c r="T6" t="s">
         <v>155</v>
@@ -4775,7 +4796,7 @@
         <v>0.409</v>
       </c>
       <c r="S7">
-        <v>2.68079e-08</v>
+        <v>2.68e-08</v>
       </c>
       <c r="T7" t="s">
         <v>156</v>
@@ -4837,7 +4858,7 @@
         <v>0.308</v>
       </c>
       <c r="S8">
-        <v>1.364392e-19</v>
+        <v>1.36e-19</v>
       </c>
       <c r="T8" t="s">
         <v>156</v>
@@ -4899,7 +4920,7 @@
         <v>0.435</v>
       </c>
       <c r="S9">
-        <v>0.02335938</v>
+        <v>0.0234</v>
       </c>
       <c r="T9" t="s">
         <v>156</v>
@@ -4961,7 +4982,7 @@
         <v>0.105</v>
       </c>
       <c r="S10">
-        <v>0.004406334</v>
+        <v>0.00441</v>
       </c>
       <c r="T10" t="s">
         <v>156</v>
@@ -5023,7 +5044,7 @@
         <v>0.454</v>
       </c>
       <c r="S11">
-        <v>0.001802491</v>
+        <v>0.0018</v>
       </c>
       <c r="T11" t="s">
         <v>156</v>
@@ -5085,7 +5106,7 @@
         <v>0.164</v>
       </c>
       <c r="S12">
-        <v>3.145903e-06</v>
+        <v>3.15e-06</v>
       </c>
       <c r="T12" t="s">
         <v>156</v>
@@ -5147,7 +5168,7 @@
         <v>0.406</v>
       </c>
       <c r="S13">
-        <v>0.0009079335</v>
+        <v>0.000908</v>
       </c>
       <c r="T13" t="s">
         <v>156</v>
@@ -5209,7 +5230,7 @@
         <v>0.24</v>
       </c>
       <c r="S14">
-        <v>0.001402991</v>
+        <v>0.0014</v>
       </c>
       <c r="T14" t="s">
         <v>156</v>
@@ -5271,7 +5292,7 @@
         <v>0.328</v>
       </c>
       <c r="S15">
-        <v>0.001342225</v>
+        <v>0.00134</v>
       </c>
       <c r="T15" t="s">
         <v>156</v>
@@ -5333,7 +5354,7 @@
         <v>0.414</v>
       </c>
       <c r="S16">
-        <v>1.378511e-08</v>
+        <v>1.38e-08</v>
       </c>
       <c r="T16" t="s">
         <v>156</v>
@@ -5395,7 +5416,7 @@
         <v>0.23</v>
       </c>
       <c r="S17">
-        <v>4.545594e-10</v>
+        <v>4.55e-10</v>
       </c>
       <c r="T17" t="s">
         <v>156</v>
@@ -5457,7 +5478,7 @@
         <v>0.05599999999999999</v>
       </c>
       <c r="S18">
-        <v>0.0007391041</v>
+        <v>0.000739</v>
       </c>
       <c r="T18" t="s">
         <v>156</v>
@@ -5519,7 +5540,7 @@
         <v>0.174</v>
       </c>
       <c r="S19">
-        <v>4.977703e-05</v>
+        <v>4.98e-05</v>
       </c>
       <c r="T19" t="s">
         <v>156</v>
@@ -5581,7 +5602,7 @@
         <v>0.485</v>
       </c>
       <c r="S20">
-        <v>2.827502e-06</v>
+        <v>2.83e-06</v>
       </c>
       <c r="T20" t="s">
         <v>156</v>
@@ -5643,7 +5664,7 @@
         <v>2.58</v>
       </c>
       <c r="S21">
-        <v>0.03241441</v>
+        <v>0.0324</v>
       </c>
       <c r="T21" t="s">
         <v>155</v>
@@ -5705,7 +5726,7 @@
         <v>0.173</v>
       </c>
       <c r="S22">
-        <v>8.926075000000001e-08</v>
+        <v>8.93e-08</v>
       </c>
       <c r="T22" t="s">
         <v>156</v>
@@ -5767,7 +5788,7 @@
         <v>0.113</v>
       </c>
       <c r="S23">
-        <v>0.002307633</v>
+        <v>0.00231</v>
       </c>
       <c r="T23" t="s">
         <v>156</v>
@@ -5829,7 +5850,7 @@
         <v>0.493</v>
       </c>
       <c r="S24">
-        <v>0.02583053</v>
+        <v>0.0258</v>
       </c>
       <c r="T24" t="s">
         <v>156</v>
@@ -5891,7 +5912,7 @@
         <v>0.08</v>
       </c>
       <c r="S25">
-        <v>0.04770937</v>
+        <v>0.0477</v>
       </c>
       <c r="T25" t="s">
         <v>156</v>
@@ -5953,7 +5974,7 @@
         <v>0.406</v>
       </c>
       <c r="S26">
-        <v>0.02901321</v>
+        <v>0.029</v>
       </c>
       <c r="T26" t="s">
         <v>156</v>
@@ -6015,7 +6036,7 @@
         <v>0.09</v>
       </c>
       <c r="S27">
-        <v>2.909308e-07</v>
+        <v>2.91e-07</v>
       </c>
       <c r="T27" t="s">
         <v>156</v>
@@ -6077,7 +6098,7 @@
         <v>2.485</v>
       </c>
       <c r="S28">
-        <v>0.00178023</v>
+        <v>0.00178</v>
       </c>
       <c r="T28" t="s">
         <v>155</v>
@@ -6139,7 +6160,7 @@
         <v>0.498</v>
       </c>
       <c r="S29">
-        <v>1.800412e-06</v>
+        <v>1.8e-06</v>
       </c>
       <c r="T29" t="s">
         <v>156</v>
@@ -6201,7 +6222,7 @@
         <v>0.37</v>
       </c>
       <c r="S30">
-        <v>8.505345999999999e-06</v>
+        <v>8.51e-06</v>
       </c>
       <c r="T30" t="s">
         <v>156</v>
@@ -6263,7 +6284,7 @@
         <v>0.429</v>
       </c>
       <c r="S31">
-        <v>4.031480999999999e-07</v>
+        <v>4.03e-07</v>
       </c>
       <c r="T31" t="s">
         <v>156</v>
@@ -6325,7 +6346,7 @@
         <v>0.483</v>
       </c>
       <c r="S32">
-        <v>0.005099004</v>
+        <v>0.0051</v>
       </c>
       <c r="T32" t="s">
         <v>156</v>
@@ -6387,7 +6408,7 @@
         <v>0.423</v>
       </c>
       <c r="S33">
-        <v>0.0005478109999999999</v>
+        <v>0.0005480000000000001</v>
       </c>
       <c r="T33" t="s">
         <v>156</v>
@@ -6449,7 +6470,7 @@
         <v>0.492</v>
       </c>
       <c r="S34">
-        <v>2.142053e-15</v>
+        <v>2.14e-15</v>
       </c>
       <c r="T34" t="s">
         <v>156</v>
@@ -6511,7 +6532,7 @@
         <v>0.493</v>
       </c>
       <c r="S35">
-        <v>0.01138533</v>
+        <v>0.0114</v>
       </c>
       <c r="T35" t="s">
         <v>156</v>
@@ -6573,7 +6594,7 @@
         <v>0.492</v>
       </c>
       <c r="S36">
-        <v>6.216013000000001e-07</v>
+        <v>6.22e-07</v>
       </c>
       <c r="T36" t="s">
         <v>156</v>
@@ -6635,7 +6656,7 @@
         <v>0.47</v>
       </c>
       <c r="S37">
-        <v>0.01753293</v>
+        <v>0.0175</v>
       </c>
       <c r="T37" t="s">
         <v>156</v>
@@ -6697,7 +6718,7 @@
         <v>0.259</v>
       </c>
       <c r="S38">
-        <v>4.284694e-16</v>
+        <v>4.28e-16</v>
       </c>
       <c r="T38" t="s">
         <v>156</v>
@@ -6759,7 +6780,7 @@
         <v>0.488</v>
       </c>
       <c r="S39">
-        <v>0.001069928</v>
+        <v>0.00107</v>
       </c>
       <c r="T39" t="s">
         <v>156</v>
@@ -6821,7 +6842,7 @@
         <v>0.496</v>
       </c>
       <c r="S40">
-        <v>0.005596359</v>
+        <v>0.0056</v>
       </c>
       <c r="T40" t="s">
         <v>156</v>
@@ -6883,7 +6904,7 @@
         <v>0.402</v>
       </c>
       <c r="S41">
-        <v>0.0005007892</v>
+        <v>0.0005009999999999999</v>
       </c>
       <c r="T41" t="s">
         <v>156</v>
@@ -6945,7 +6966,7 @@
         <v>0.426</v>
       </c>
       <c r="S42">
-        <v>4.611194e-07</v>
+        <v>4.61e-07</v>
       </c>
       <c r="T42" t="s">
         <v>156</v>
@@ -7007,7 +7028,7 @@
         <v>0.487</v>
       </c>
       <c r="S43">
-        <v>0.01265214</v>
+        <v>0.0127</v>
       </c>
       <c r="T43" t="s">
         <v>156</v>
@@ -7069,7 +7090,7 @@
         <v>2.027</v>
       </c>
       <c r="S44">
-        <v>1.852475e-07</v>
+        <v>1.85e-07</v>
       </c>
       <c r="T44" t="s">
         <v>155</v>
@@ -7131,7 +7152,7 @@
         <v>0.49</v>
       </c>
       <c r="S45">
-        <v>0.0004066297</v>
+        <v>0.000407</v>
       </c>
       <c r="T45" t="s">
         <v>156</v>
@@ -7193,7 +7214,7 @@
         <v>0.214</v>
       </c>
       <c r="S46">
-        <v>0.0005925219999999999</v>
+        <v>0.000593</v>
       </c>
       <c r="T46" t="s">
         <v>156</v>
@@ -7255,7 +7276,7 @@
         <v>2.003</v>
       </c>
       <c r="S47">
-        <v>0.002346994</v>
+        <v>0.00235</v>
       </c>
       <c r="T47" t="s">
         <v>155</v>
@@ -7317,7 +7338,7 @@
         <v>0.457</v>
       </c>
       <c r="S48">
-        <v>3.657448e-10</v>
+        <v>3.66e-10</v>
       </c>
       <c r="T48" t="s">
         <v>156</v>
@@ -7379,7 +7400,7 @@
         <v>0.383</v>
       </c>
       <c r="S49">
-        <v>0.0001915321</v>
+        <v>0.000192</v>
       </c>
       <c r="T49" t="s">
         <v>156</v>
@@ -7441,7 +7462,7 @@
         <v>0.3720000000000001</v>
       </c>
       <c r="S50">
-        <v>0.0003213033</v>
+        <v>0.000321</v>
       </c>
       <c r="T50" t="s">
         <v>156</v>
@@ -7503,7 +7524,7 @@
         <v>0.459</v>
       </c>
       <c r="S51">
-        <v>0.0279062</v>
+        <v>0.0279</v>
       </c>
       <c r="T51" t="s">
         <v>156</v>
@@ -7565,7 +7586,7 @@
         <v>4.496</v>
       </c>
       <c r="S52">
-        <v>0.0005738415</v>
+        <v>0.0005740000000000001</v>
       </c>
       <c r="T52" t="s">
         <v>155</v>
@@ -7627,7 +7648,7 @@
         <v>3.915</v>
       </c>
       <c r="S53">
-        <v>0.001508434</v>
+        <v>0.00151</v>
       </c>
       <c r="T53" t="s">
         <v>155</v>
@@ -7689,7 +7710,7 @@
         <v>0.459</v>
       </c>
       <c r="S54">
-        <v>7.208760999999999e-09</v>
+        <v>7.21e-09</v>
       </c>
       <c r="T54" t="s">
         <v>156</v>
@@ -7751,7 +7772,7 @@
         <v>2.052</v>
       </c>
       <c r="S55">
-        <v>0.001426171</v>
+        <v>0.00143</v>
       </c>
       <c r="T55" t="s">
         <v>155</v>
@@ -7813,7 +7834,7 @@
         <v>0.299</v>
       </c>
       <c r="S56">
-        <v>0.0143367</v>
+        <v>0.0143</v>
       </c>
       <c r="T56" t="s">
         <v>156</v>
@@ -7875,7 +7896,7 @@
         <v>0.426</v>
       </c>
       <c r="S57">
-        <v>0.0003679927</v>
+        <v>0.000368</v>
       </c>
       <c r="T57" t="s">
         <v>156</v>
@@ -7937,7 +7958,7 @@
         <v>0.487</v>
       </c>
       <c r="S58">
-        <v>0.0143873</v>
+        <v>0.0144</v>
       </c>
       <c r="T58" t="s">
         <v>156</v>
@@ -7999,7 +8020,7 @@
         <v>0.429</v>
       </c>
       <c r="S59">
-        <v>0.03769336</v>
+        <v>0.0377</v>
       </c>
       <c r="T59" t="s">
         <v>156</v>
@@ -8061,7 +8082,7 @@
         <v>2.228</v>
       </c>
       <c r="S60">
-        <v>8.433892e-11</v>
+        <v>8.43e-11</v>
       </c>
       <c r="T60" t="s">
         <v>155</v>
@@ -8123,7 +8144,7 @@
         <v>2.05</v>
       </c>
       <c r="S61">
-        <v>0.001853189</v>
+        <v>0.00185</v>
       </c>
       <c r="T61" t="s">
         <v>155</v>
@@ -8185,7 +8206,7 @@
         <v>0.333</v>
       </c>
       <c r="S62">
-        <v>5.579181999999999e-07</v>
+        <v>5.58e-07</v>
       </c>
       <c r="T62" t="s">
         <v>156</v>
@@ -8247,7 +8268,7 @@
         <v>4.176</v>
       </c>
       <c r="S63">
-        <v>1.747009e-06</v>
+        <v>1.75e-06</v>
       </c>
       <c r="T63" t="s">
         <v>155</v>
@@ -8309,7 +8330,7 @@
         <v>0.34</v>
       </c>
       <c r="S64">
-        <v>0.004133543</v>
+        <v>0.00413</v>
       </c>
       <c r="T64" t="s">
         <v>156</v>
@@ -8371,7 +8392,7 @@
         <v>2.607</v>
       </c>
       <c r="S65">
-        <v>0.00997437</v>
+        <v>0.00997</v>
       </c>
       <c r="T65" t="s">
         <v>155</v>
@@ -8433,7 +8454,7 @@
         <v>2.404</v>
       </c>
       <c r="S66">
-        <v>0.02692926</v>
+        <v>0.0269</v>
       </c>
       <c r="T66" t="s">
         <v>155</v>
@@ -8495,7 +8516,7 @@
         <v>2.762</v>
       </c>
       <c r="S67">
-        <v>1.037668e-06</v>
+        <v>1.04e-06</v>
       </c>
       <c r="T67" t="s">
         <v>155</v>
@@ -8557,7 +8578,7 @@
         <v>2.128</v>
       </c>
       <c r="S68">
-        <v>4.868612e-06</v>
+        <v>4.87e-06</v>
       </c>
       <c r="T68" t="s">
         <v>155</v>
@@ -8619,7 +8640,7 @@
         <v>2.13</v>
       </c>
       <c r="S69">
-        <v>0.02384916</v>
+        <v>0.0238</v>
       </c>
       <c r="T69" t="s">
         <v>155</v>
@@ -8681,7 +8702,7 @@
         <v>0.168</v>
       </c>
       <c r="S70">
-        <v>6.609442e-08</v>
+        <v>6.61e-08</v>
       </c>
       <c r="T70" t="s">
         <v>156</v>
@@ -8743,7 +8764,7 @@
         <v>2.556</v>
       </c>
       <c r="S71">
-        <v>0.03695473</v>
+        <v>0.037</v>
       </c>
       <c r="T71" t="s">
         <v>155</v>
@@ -8805,7 +8826,7 @@
         <v>0.43</v>
       </c>
       <c r="S72">
-        <v>1.085999e-16</v>
+        <v>1.09e-16</v>
       </c>
       <c r="T72" t="s">
         <v>156</v>
@@ -8817,6 +8838,2809 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2">
+        <v>42.026</v>
+      </c>
+      <c r="E2">
+        <v>64.596</v>
+      </c>
+      <c r="F2">
+        <v>18.9</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>1.049</v>
+      </c>
+      <c r="K2">
+        <v>0.406</v>
+      </c>
+      <c r="L2">
+        <v>1.311</v>
+      </c>
+      <c r="M2">
+        <v>1.313</v>
+      </c>
+      <c r="N2">
+        <v>0.63</v>
+      </c>
+      <c r="O2">
+        <v>1.232</v>
+      </c>
+      <c r="P2">
+        <v>0.61</v>
+      </c>
+      <c r="Q2">
+        <v>0.8909999999999999</v>
+      </c>
+      <c r="R2">
+        <v>0.387</v>
+      </c>
+      <c r="S2">
+        <v>0.000411</v>
+      </c>
+      <c r="T2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3">
+        <v>57.011</v>
+      </c>
+      <c r="E3">
+        <v>-2</v>
+      </c>
+      <c r="F3">
+        <v>1.4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1.043</v>
+      </c>
+      <c r="K3">
+        <v>2.698</v>
+      </c>
+      <c r="L3">
+        <v>0.303</v>
+      </c>
+      <c r="M3">
+        <v>0.383</v>
+      </c>
+      <c r="N3">
+        <v>1.926</v>
+      </c>
+      <c r="O3">
+        <v>0.602</v>
+      </c>
+      <c r="P3">
+        <v>1.518</v>
+      </c>
+      <c r="Q3">
+        <v>1.183</v>
+      </c>
+      <c r="R3">
+        <v>2.585</v>
+      </c>
+      <c r="S3">
+        <v>0.000684</v>
+      </c>
+      <c r="T3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4">
+        <v>515.6</v>
+      </c>
+      <c r="E4">
+        <v>12.448</v>
+      </c>
+      <c r="F4">
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>0.626</v>
+      </c>
+      <c r="K4">
+        <v>2.598</v>
+      </c>
+      <c r="L4">
+        <v>0.349</v>
+      </c>
+      <c r="M4">
+        <v>0.408</v>
+      </c>
+      <c r="N4">
+        <v>2.012</v>
+      </c>
+      <c r="O4">
+        <v>0.609</v>
+      </c>
+      <c r="P4">
+        <v>1.711</v>
+      </c>
+      <c r="Q4">
+        <v>1.222</v>
+      </c>
+      <c r="R4">
+        <v>4.153</v>
+      </c>
+      <c r="S4">
+        <v>0.000282</v>
+      </c>
+      <c r="T4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5">
+        <v>9.3926</v>
+      </c>
+      <c r="E5">
+        <v>14.562</v>
+      </c>
+      <c r="F5">
+        <v>34.4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>1.07</v>
+      </c>
+      <c r="K5">
+        <v>0.355</v>
+      </c>
+      <c r="L5">
+        <v>1.725</v>
+      </c>
+      <c r="M5">
+        <v>1.59</v>
+      </c>
+      <c r="N5">
+        <v>0.35</v>
+      </c>
+      <c r="O5">
+        <v>1.403</v>
+      </c>
+      <c r="P5">
+        <v>0.143</v>
+      </c>
+      <c r="Q5">
+        <v>0.316</v>
+      </c>
+      <c r="R5">
+        <v>0.332</v>
+      </c>
+      <c r="S5">
+        <v>0.00109</v>
+      </c>
+      <c r="T5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6">
+        <v>13.242</v>
+      </c>
+      <c r="E6">
+        <v>10.689</v>
+      </c>
+      <c r="F6">
+        <v>17.5</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1.055</v>
+      </c>
+      <c r="K6">
+        <v>2.212</v>
+      </c>
+      <c r="L6">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M6">
+        <v>0.6459999999999999</v>
+      </c>
+      <c r="N6">
+        <v>1.663</v>
+      </c>
+      <c r="O6">
+        <v>0.589</v>
+      </c>
+      <c r="P6">
+        <v>1.213</v>
+      </c>
+      <c r="Q6">
+        <v>0.919</v>
+      </c>
+      <c r="R6">
+        <v>2.095</v>
+      </c>
+      <c r="S6">
+        <v>0.000816</v>
+      </c>
+      <c r="T6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7">
+        <v>10.18</v>
+      </c>
+      <c r="E7">
+        <v>5.2316</v>
+      </c>
+      <c r="F7">
+        <v>34.4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>0.8740000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.27</v>
+      </c>
+      <c r="L7">
+        <v>1.365</v>
+      </c>
+      <c r="M7">
+        <v>1.632</v>
+      </c>
+      <c r="N7">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="O7">
+        <v>1.62</v>
+      </c>
+      <c r="P7">
+        <v>0.406</v>
+      </c>
+      <c r="Q7">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.31</v>
+      </c>
+      <c r="S7">
+        <v>0.008670000000000001</v>
+      </c>
+      <c r="T7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8">
+        <v>11.301</v>
+      </c>
+      <c r="E8">
+        <v>28.428</v>
+      </c>
+      <c r="F8">
+        <v>44.9</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>0.65</v>
+      </c>
+      <c r="K8">
+        <v>0.302</v>
+      </c>
+      <c r="L8">
+        <v>3.727</v>
+      </c>
+      <c r="M8">
+        <v>1.424</v>
+      </c>
+      <c r="N8">
+        <v>0.469</v>
+      </c>
+      <c r="O8">
+        <v>0.149</v>
+      </c>
+      <c r="P8">
+        <v>0.191</v>
+      </c>
+      <c r="Q8">
+        <v>0.224</v>
+      </c>
+      <c r="R8">
+        <v>0.464</v>
+      </c>
+      <c r="S8">
+        <v>0.009890000000000001</v>
+      </c>
+      <c r="T8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9">
+        <v>60.179</v>
+      </c>
+      <c r="E9">
+        <v>36.756</v>
+      </c>
+      <c r="F9">
+        <v>6.3</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>1.112</v>
+      </c>
+      <c r="K9">
+        <v>0.4320000000000001</v>
+      </c>
+      <c r="L9">
+        <v>2.293</v>
+      </c>
+      <c r="M9">
+        <v>1.517</v>
+      </c>
+      <c r="N9">
+        <v>0.448</v>
+      </c>
+      <c r="O9">
+        <v>0.667</v>
+      </c>
+      <c r="P9">
+        <v>0.376</v>
+      </c>
+      <c r="Q9">
+        <v>0.494</v>
+      </c>
+      <c r="R9">
+        <v>0.388</v>
+      </c>
+      <c r="S9">
+        <v>0.0058</v>
+      </c>
+      <c r="T9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>22.83</v>
+      </c>
+      <c r="E10">
+        <v>4.2029</v>
+      </c>
+      <c r="F10">
+        <v>7.4</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>0.885</v>
+      </c>
+      <c r="K10">
+        <v>2.871</v>
+      </c>
+      <c r="L10">
+        <v>0.343</v>
+      </c>
+      <c r="M10">
+        <v>0.367</v>
+      </c>
+      <c r="N10">
+        <v>2.004</v>
+      </c>
+      <c r="O10">
+        <v>0.5589999999999999</v>
+      </c>
+      <c r="P10">
+        <v>1.374</v>
+      </c>
+      <c r="Q10">
+        <v>1.457</v>
+      </c>
+      <c r="R10">
+        <v>3.244</v>
+      </c>
+      <c r="S10">
+        <v>0.000371</v>
+      </c>
+      <c r="T10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11">
+        <v>181.06</v>
+      </c>
+      <c r="E11">
+        <v>4.2605</v>
+      </c>
+      <c r="F11">
+        <v>2.8</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>0.8</v>
+      </c>
+      <c r="K11">
+        <v>1.722</v>
+      </c>
+      <c r="L11">
+        <v>0.537</v>
+      </c>
+      <c r="M11">
+        <v>0.505</v>
+      </c>
+      <c r="N11">
+        <v>1.381</v>
+      </c>
+      <c r="O11">
+        <v>1.023</v>
+      </c>
+      <c r="P11">
+        <v>1.654</v>
+      </c>
+      <c r="Q11">
+        <v>1.305</v>
+      </c>
+      <c r="R11">
+        <v>2.154</v>
+      </c>
+      <c r="S11">
+        <v>0.041</v>
+      </c>
+      <c r="T11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
+        <v>94.57299999999999</v>
+      </c>
+      <c r="E12">
+        <v>8.914999999999999</v>
+      </c>
+      <c r="F12">
+        <v>3.5</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>0.912</v>
+      </c>
+      <c r="K12">
+        <v>2.849</v>
+      </c>
+      <c r="L12">
+        <v>0.367</v>
+      </c>
+      <c r="M12">
+        <v>0.388</v>
+      </c>
+      <c r="N12">
+        <v>1.89</v>
+      </c>
+      <c r="O12">
+        <v>0.498</v>
+      </c>
+      <c r="P12">
+        <v>1.504</v>
+      </c>
+      <c r="Q12">
+        <v>1.32</v>
+      </c>
+      <c r="R12">
+        <v>3.124</v>
+      </c>
+      <c r="S12">
+        <v>0.000675</v>
+      </c>
+      <c r="T12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13">
+        <v>53.15</v>
+      </c>
+      <c r="E13">
+        <v>62.422</v>
+      </c>
+      <c r="F13">
+        <v>26.9</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>0.904</v>
+      </c>
+      <c r="K13">
+        <v>2.714</v>
+      </c>
+      <c r="L13">
+        <v>0.51</v>
+      </c>
+      <c r="M13">
+        <v>0.546</v>
+      </c>
+      <c r="N13">
+        <v>1.292</v>
+      </c>
+      <c r="O13">
+        <v>0.649</v>
+      </c>
+      <c r="P13">
+        <v>1.165</v>
+      </c>
+      <c r="Q13">
+        <v>1.451</v>
+      </c>
+      <c r="R13">
+        <v>3.002</v>
+      </c>
+      <c r="S13">
+        <v>2.02e-15</v>
+      </c>
+      <c r="T13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14">
+        <v>11.676</v>
+      </c>
+      <c r="E14">
+        <v>3.9725</v>
+      </c>
+      <c r="F14">
+        <v>23.4</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>1.001</v>
+      </c>
+      <c r="K14">
+        <v>0.375</v>
+      </c>
+      <c r="L14">
+        <v>1.626</v>
+      </c>
+      <c r="M14">
+        <v>1.854</v>
+      </c>
+      <c r="N14">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="O14">
+        <v>1.117</v>
+      </c>
+      <c r="P14">
+        <v>0.412</v>
+      </c>
+      <c r="Q14">
+        <v>0.408</v>
+      </c>
+      <c r="R14">
+        <v>0.375</v>
+      </c>
+      <c r="S14">
+        <v>0.0468</v>
+      </c>
+      <c r="T14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15">
+        <v>34.814</v>
+      </c>
+      <c r="E15">
+        <v>58.165</v>
+      </c>
+      <c r="F15">
+        <v>28.6</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>11</v>
+      </c>
+      <c r="J15">
+        <v>0.6759999999999999</v>
+      </c>
+      <c r="K15">
+        <v>1.531</v>
+      </c>
+      <c r="L15">
+        <v>0.531</v>
+      </c>
+      <c r="M15">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="N15">
+        <v>1.399</v>
+      </c>
+      <c r="O15">
+        <v>1.503</v>
+      </c>
+      <c r="P15">
+        <v>0.903</v>
+      </c>
+      <c r="Q15">
+        <v>1.094</v>
+      </c>
+      <c r="R15">
+        <v>2.265</v>
+      </c>
+      <c r="S15">
+        <v>4.12e-08</v>
+      </c>
+      <c r="T15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16">
+        <v>76.613</v>
+      </c>
+      <c r="E16">
+        <v>92.901</v>
+      </c>
+      <c r="F16">
+        <v>23.8</v>
+      </c>
+      <c r="G16">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>21</v>
+      </c>
+      <c r="I16">
+        <v>28</v>
+      </c>
+      <c r="J16">
+        <v>1.204</v>
+      </c>
+      <c r="K16">
+        <v>0.5760000000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="M16">
+        <v>1.284</v>
+      </c>
+      <c r="N16">
+        <v>0.868</v>
+      </c>
+      <c r="O16">
+        <v>1.35</v>
+      </c>
+      <c r="P16">
+        <v>0.696</v>
+      </c>
+      <c r="Q16">
+        <v>0.823</v>
+      </c>
+      <c r="R16">
+        <v>0.478</v>
+      </c>
+      <c r="S16">
+        <v>6.54e-07</v>
+      </c>
+      <c r="T16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17">
+        <v>41.654</v>
+      </c>
+      <c r="E17">
+        <v>191.07</v>
+      </c>
+      <c r="F17">
+        <v>35.6</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>29</v>
+      </c>
+      <c r="J17">
+        <v>1.159</v>
+      </c>
+      <c r="K17">
+        <v>0.5479999999999999</v>
+      </c>
+      <c r="L17">
+        <v>1.222</v>
+      </c>
+      <c r="M17">
+        <v>1.312</v>
+      </c>
+      <c r="N17">
+        <v>1.111</v>
+      </c>
+      <c r="O17">
+        <v>0.905</v>
+      </c>
+      <c r="P17">
+        <v>1.023</v>
+      </c>
+      <c r="Q17">
+        <v>0.835</v>
+      </c>
+      <c r="R17">
+        <v>0.473</v>
+      </c>
+      <c r="S17">
+        <v>0.000138</v>
+      </c>
+      <c r="T17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18">
+        <v>458.22</v>
+      </c>
+      <c r="E18">
+        <v>268.66</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>48</v>
+      </c>
+      <c r="H18">
+        <v>48</v>
+      </c>
+      <c r="I18">
+        <v>65</v>
+      </c>
+      <c r="J18">
+        <v>1.072</v>
+      </c>
+      <c r="K18">
+        <v>2.58</v>
+      </c>
+      <c r="L18">
+        <v>1.022</v>
+      </c>
+      <c r="M18">
+        <v>1.188</v>
+      </c>
+      <c r="N18">
+        <v>1.196</v>
+      </c>
+      <c r="O18">
+        <v>0.512</v>
+      </c>
+      <c r="P18">
+        <v>0.802</v>
+      </c>
+      <c r="Q18">
+        <v>0.613</v>
+      </c>
+      <c r="R18">
+        <v>2.406</v>
+      </c>
+      <c r="S18">
+        <v>3.55e-18</v>
+      </c>
+      <c r="T18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19">
+        <v>31.554</v>
+      </c>
+      <c r="E19">
+        <v>52.45</v>
+      </c>
+      <c r="F19">
+        <v>21.1</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>1.086</v>
+      </c>
+      <c r="K19">
+        <v>0.423</v>
+      </c>
+      <c r="L19">
+        <v>1.729</v>
+      </c>
+      <c r="M19">
+        <v>1.597</v>
+      </c>
+      <c r="N19">
+        <v>0.679</v>
+      </c>
+      <c r="O19">
+        <v>0.9259999999999999</v>
+      </c>
+      <c r="P19">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="Q19">
+        <v>0.579</v>
+      </c>
+      <c r="R19">
+        <v>0.39</v>
+      </c>
+      <c r="S19">
+        <v>0.0102</v>
+      </c>
+      <c r="T19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20">
+        <v>17.81799999999999</v>
+      </c>
+      <c r="E20">
+        <v>21.22</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>0.596</v>
+      </c>
+      <c r="K20">
+        <v>1.386</v>
+      </c>
+      <c r="L20">
+        <v>0.7879999999999999</v>
+      </c>
+      <c r="M20">
+        <v>0.585</v>
+      </c>
+      <c r="N20">
+        <v>1.339</v>
+      </c>
+      <c r="O20">
+        <v>1.572</v>
+      </c>
+      <c r="P20">
+        <v>1.136</v>
+      </c>
+      <c r="Q20">
+        <v>1.133</v>
+      </c>
+      <c r="R20">
+        <v>2.323</v>
+      </c>
+      <c r="S20">
+        <v>0.0404</v>
+      </c>
+      <c r="T20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21">
+        <v>20.42</v>
+      </c>
+      <c r="E21">
+        <v>23.555</v>
+      </c>
+      <c r="F21">
+        <v>14.6</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>0.5660000000000001</v>
+      </c>
+      <c r="K21">
+        <v>1.386</v>
+      </c>
+      <c r="L21">
+        <v>0.33</v>
+      </c>
+      <c r="M21">
+        <v>0.431</v>
+      </c>
+      <c r="N21">
+        <v>0.85</v>
+      </c>
+      <c r="O21">
+        <v>1.745</v>
+      </c>
+      <c r="P21">
+        <v>0.992</v>
+      </c>
+      <c r="Q21">
+        <v>1.923</v>
+      </c>
+      <c r="R21">
+        <v>2.448</v>
+      </c>
+      <c r="S21">
+        <v>0.00733</v>
+      </c>
+      <c r="T21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22">
+        <v>129.99</v>
+      </c>
+      <c r="E22">
+        <v>323.31</v>
+      </c>
+      <c r="F22">
+        <v>27.7</v>
+      </c>
+      <c r="G22">
+        <v>26</v>
+      </c>
+      <c r="H22">
+        <v>24</v>
+      </c>
+      <c r="I22">
+        <v>49</v>
+      </c>
+      <c r="J22">
+        <v>0.727</v>
+      </c>
+      <c r="K22">
+        <v>1.462</v>
+      </c>
+      <c r="L22">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="M22">
+        <v>0.596</v>
+      </c>
+      <c r="N22">
+        <v>1.272</v>
+      </c>
+      <c r="O22">
+        <v>1.214</v>
+      </c>
+      <c r="P22">
+        <v>1.672</v>
+      </c>
+      <c r="Q22">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="R22">
+        <v>2.012</v>
+      </c>
+      <c r="S22">
+        <v>5.37e-22</v>
+      </c>
+      <c r="T22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23">
+        <v>105.87</v>
+      </c>
+      <c r="E23">
+        <v>7.0451</v>
+      </c>
+      <c r="F23">
+        <v>4.9</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="K23">
+        <v>2.15</v>
+      </c>
+      <c r="L23">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="M23">
+        <v>0.482</v>
+      </c>
+      <c r="N23">
+        <v>1.752</v>
+      </c>
+      <c r="O23">
+        <v>0.718</v>
+      </c>
+      <c r="P23">
+        <v>1.37</v>
+      </c>
+      <c r="Q23">
+        <v>1.439</v>
+      </c>
+      <c r="R23">
+        <v>3.436</v>
+      </c>
+      <c r="S23">
+        <v>0.026</v>
+      </c>
+      <c r="T23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24">
+        <v>42.339</v>
+      </c>
+      <c r="E24">
+        <v>5.204</v>
+      </c>
+      <c r="F24">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>0.643</v>
+      </c>
+      <c r="K24">
+        <v>2.56</v>
+      </c>
+      <c r="L24">
+        <v>0.48</v>
+      </c>
+      <c r="M24">
+        <v>0.524</v>
+      </c>
+      <c r="N24">
+        <v>1.151</v>
+      </c>
+      <c r="O24">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="P24">
+        <v>1.997</v>
+      </c>
+      <c r="Q24">
+        <v>1.323</v>
+      </c>
+      <c r="R24">
+        <v>3.981</v>
+      </c>
+      <c r="S24">
+        <v>0.000184</v>
+      </c>
+      <c r="T24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25">
+        <v>34.36199999999999</v>
+      </c>
+      <c r="E25">
+        <v>8.5099</v>
+      </c>
+      <c r="F25">
+        <v>17.2</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>0.494</v>
+      </c>
+      <c r="K25">
+        <v>1.042</v>
+      </c>
+      <c r="L25">
+        <v>0.596</v>
+      </c>
+      <c r="M25">
+        <v>0.516</v>
+      </c>
+      <c r="N25">
+        <v>1.378</v>
+      </c>
+      <c r="O25">
+        <v>1.569</v>
+      </c>
+      <c r="P25">
+        <v>1.275</v>
+      </c>
+      <c r="Q25">
+        <v>1.434</v>
+      </c>
+      <c r="R25">
+        <v>2.112</v>
+      </c>
+      <c r="S25">
+        <v>0.000664</v>
+      </c>
+      <c r="T25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26">
+        <v>82.86</v>
+      </c>
+      <c r="E26">
+        <v>75.806</v>
+      </c>
+      <c r="F26">
+        <v>21.1</v>
+      </c>
+      <c r="G26">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <v>0.621</v>
+      </c>
+      <c r="K26">
+        <v>4.928999999999999</v>
+      </c>
+      <c r="L26">
+        <v>0.606</v>
+      </c>
+      <c r="M26">
+        <v>0.677</v>
+      </c>
+      <c r="N26">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.498</v>
+      </c>
+      <c r="P26">
+        <v>0.877</v>
+      </c>
+      <c r="Q26">
+        <v>0.825</v>
+      </c>
+      <c r="R26">
+        <v>7.937</v>
+      </c>
+      <c r="S26">
+        <v>1.94e-06</v>
+      </c>
+      <c r="T26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27">
+        <v>5.0526</v>
+      </c>
+      <c r="E27">
+        <v>14.269</v>
+      </c>
+      <c r="F27">
+        <v>77.3</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>0.9329999999999999</v>
+      </c>
+      <c r="K27">
+        <v>0.406</v>
+      </c>
+      <c r="L27">
+        <v>2.439</v>
+      </c>
+      <c r="M27">
+        <v>1.403</v>
+      </c>
+      <c r="N27">
+        <v>0.722</v>
+      </c>
+      <c r="O27">
+        <v>0.883</v>
+      </c>
+      <c r="P27">
+        <v>0.396</v>
+      </c>
+      <c r="Q27">
+        <v>0.454</v>
+      </c>
+      <c r="R27">
+        <v>0.435</v>
+      </c>
+      <c r="S27">
+        <v>0.0245</v>
+      </c>
+      <c r="T27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28">
+        <v>13.742</v>
+      </c>
+      <c r="E28">
+        <v>3.2933</v>
+      </c>
+      <c r="F28">
+        <v>14.4</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>0.593</v>
+      </c>
+      <c r="K28">
+        <v>1.271</v>
+      </c>
+      <c r="L28">
+        <v>1.292</v>
+      </c>
+      <c r="M28">
+        <v>0.426</v>
+      </c>
+      <c r="N28">
+        <v>1.554</v>
+      </c>
+      <c r="O28">
+        <v>0.88</v>
+      </c>
+      <c r="P28">
+        <v>1.272</v>
+      </c>
+      <c r="Q28">
+        <v>1.466</v>
+      </c>
+      <c r="R28">
+        <v>2.143</v>
+      </c>
+      <c r="S28">
+        <v>0.0476</v>
+      </c>
+      <c r="T28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29">
+        <v>22.693</v>
+      </c>
+      <c r="E29">
+        <v>104.3</v>
+      </c>
+      <c r="F29">
+        <v>50.7</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>12</v>
+      </c>
+      <c r="J29">
+        <v>1.106</v>
+      </c>
+      <c r="K29">
+        <v>0.537</v>
+      </c>
+      <c r="L29">
+        <v>1.99</v>
+      </c>
+      <c r="M29">
+        <v>1.75</v>
+      </c>
+      <c r="N29">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="O29">
+        <v>0.752</v>
+      </c>
+      <c r="P29">
+        <v>0.388</v>
+      </c>
+      <c r="Q29">
+        <v>0.427</v>
+      </c>
+      <c r="R29">
+        <v>0.486</v>
+      </c>
+      <c r="S29">
+        <v>2.96e-05</v>
+      </c>
+      <c r="T29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30">
+        <v>49.903</v>
+      </c>
+      <c r="E30">
+        <v>1.71</v>
+      </c>
+      <c r="F30">
+        <v>1.6</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>0.787</v>
+      </c>
+      <c r="K30">
+        <v>2.777</v>
+      </c>
+      <c r="L30">
+        <v>0.201</v>
+      </c>
+      <c r="M30">
+        <v>0.256</v>
+      </c>
+      <c r="N30">
+        <v>1.915</v>
+      </c>
+      <c r="O30">
+        <v>0.578</v>
+      </c>
+      <c r="P30">
+        <v>1.742</v>
+      </c>
+      <c r="Q30">
+        <v>1.423</v>
+      </c>
+      <c r="R30">
+        <v>3.529</v>
+      </c>
+      <c r="S30">
+        <v>4.5e-05</v>
+      </c>
+      <c r="T30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31">
+        <v>54.64</v>
+      </c>
+      <c r="E31">
+        <v>295.17</v>
+      </c>
+      <c r="F31">
+        <v>44.8</v>
+      </c>
+      <c r="G31">
+        <v>19</v>
+      </c>
+      <c r="H31">
+        <v>19</v>
+      </c>
+      <c r="I31">
+        <v>59</v>
+      </c>
+      <c r="J31">
+        <v>0.867</v>
+      </c>
+      <c r="K31">
+        <v>1.971</v>
+      </c>
+      <c r="L31">
+        <v>0.447</v>
+      </c>
+      <c r="M31">
+        <v>0.6609999999999999</v>
+      </c>
+      <c r="N31">
+        <v>0.945</v>
+      </c>
+      <c r="O31">
+        <v>0.7440000000000001</v>
+      </c>
+      <c r="P31">
+        <v>1.904</v>
+      </c>
+      <c r="Q31">
+        <v>1.4</v>
+      </c>
+      <c r="R31">
+        <v>2.273</v>
+      </c>
+      <c r="S31">
+        <v>8.539999999999999e-14</v>
+      </c>
+      <c r="T31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32">
+        <v>27.385</v>
+      </c>
+      <c r="E32">
+        <v>4.1176</v>
+      </c>
+      <c r="F32">
+        <v>8.1</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>0.87</v>
+      </c>
+      <c r="K32">
+        <v>0.418</v>
+      </c>
+      <c r="L32">
+        <v>1.453</v>
+      </c>
+      <c r="M32">
+        <v>1.046</v>
+      </c>
+      <c r="N32">
+        <v>0.804</v>
+      </c>
+      <c r="O32">
+        <v>1.53</v>
+      </c>
+      <c r="P32">
+        <v>0.7170000000000001</v>
+      </c>
+      <c r="Q32">
+        <v>0.831</v>
+      </c>
+      <c r="R32">
+        <v>0.481</v>
+      </c>
+      <c r="S32">
+        <v>0.0126</v>
+      </c>
+      <c r="T32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33">
+        <v>29.13</v>
+      </c>
+      <c r="E33">
+        <v>238.43</v>
+      </c>
+      <c r="F33">
+        <v>50.7</v>
+      </c>
+      <c r="G33">
+        <v>11</v>
+      </c>
+      <c r="H33">
+        <v>11</v>
+      </c>
+      <c r="I33">
+        <v>37</v>
+      </c>
+      <c r="J33">
+        <v>0.9590000000000001</v>
+      </c>
+      <c r="K33">
+        <v>0.43</v>
+      </c>
+      <c r="L33">
+        <v>1.231</v>
+      </c>
+      <c r="M33">
+        <v>1.389</v>
+      </c>
+      <c r="N33">
+        <v>0.585</v>
+      </c>
+      <c r="O33">
+        <v>0.9</v>
+      </c>
+      <c r="P33">
+        <v>1.389</v>
+      </c>
+      <c r="Q33">
+        <v>0.997</v>
+      </c>
+      <c r="R33">
+        <v>0.449</v>
+      </c>
+      <c r="S33">
+        <v>0.000146</v>
+      </c>
+      <c r="T33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34">
+        <v>68.97499999999999</v>
+      </c>
+      <c r="E34">
+        <v>22.894</v>
+      </c>
+      <c r="F34">
+        <v>9.5</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>1.002</v>
+      </c>
+      <c r="K34">
+        <v>2.416</v>
+      </c>
+      <c r="L34">
+        <v>0.489</v>
+      </c>
+      <c r="M34">
+        <v>0.665</v>
+      </c>
+      <c r="N34">
+        <v>0.9740000000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.838</v>
+      </c>
+      <c r="P34">
+        <v>1.246</v>
+      </c>
+      <c r="Q34">
+        <v>1.49</v>
+      </c>
+      <c r="R34">
+        <v>2.41</v>
+      </c>
+      <c r="S34">
+        <v>0.0354</v>
+      </c>
+      <c r="T34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35">
+        <v>35.385</v>
+      </c>
+      <c r="E35">
+        <v>58.035</v>
+      </c>
+      <c r="F35">
+        <v>15.9</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>0.5379999999999999</v>
+      </c>
+      <c r="K35">
+        <v>2.268</v>
+      </c>
+      <c r="L35">
+        <v>0.804</v>
+      </c>
+      <c r="M35">
+        <v>0.45</v>
+      </c>
+      <c r="N35">
+        <v>1.054</v>
+      </c>
+      <c r="O35">
+        <v>0.502</v>
+      </c>
+      <c r="P35">
+        <v>2.53</v>
+      </c>
+      <c r="Q35">
+        <v>1.268</v>
+      </c>
+      <c r="R35">
+        <v>4.217</v>
+      </c>
+      <c r="S35">
+        <v>0.000728</v>
+      </c>
+      <c r="T35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36">
+        <v>3816</v>
+      </c>
+      <c r="E36">
+        <v>-2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0.6729999999999999</v>
+      </c>
+      <c r="K36">
+        <v>2.766</v>
+      </c>
+      <c r="L36">
+        <v>0.261</v>
+      </c>
+      <c r="M36">
+        <v>0.292</v>
+      </c>
+      <c r="N36">
+        <v>2.129</v>
+      </c>
+      <c r="O36">
+        <v>0.466</v>
+      </c>
+      <c r="P36">
+        <v>1.765</v>
+      </c>
+      <c r="Q36">
+        <v>1.486</v>
+      </c>
+      <c r="R36">
+        <v>4.109</v>
+      </c>
+      <c r="S36">
+        <v>0.007690000000000001</v>
+      </c>
+      <c r="T36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37">
+        <v>59.179</v>
+      </c>
+      <c r="E37">
+        <v>19.517</v>
+      </c>
+      <c r="F37">
+        <v>4.1</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>0.802</v>
+      </c>
+      <c r="K37">
+        <v>2.823</v>
+      </c>
+      <c r="L37">
+        <v>0.284</v>
+      </c>
+      <c r="M37">
+        <v>0.362</v>
+      </c>
+      <c r="N37">
+        <v>2.021</v>
+      </c>
+      <c r="O37">
+        <v>0.57</v>
+      </c>
+      <c r="P37">
+        <v>1.468</v>
+      </c>
+      <c r="Q37">
+        <v>1.292</v>
+      </c>
+      <c r="R37">
+        <v>3.522</v>
+      </c>
+      <c r="S37">
+        <v>0.0027</v>
+      </c>
+      <c r="T37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38">
+        <v>35.87699999999999</v>
+      </c>
+      <c r="E38">
+        <v>3.3396</v>
+      </c>
+      <c r="F38">
+        <v>2.2</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>17</v>
+      </c>
+      <c r="J38">
+        <v>0.927</v>
+      </c>
+      <c r="K38">
+        <v>2.88</v>
+      </c>
+      <c r="L38">
+        <v>0.222</v>
+      </c>
+      <c r="M38">
+        <v>0.34</v>
+      </c>
+      <c r="N38">
+        <v>2.11</v>
+      </c>
+      <c r="O38">
+        <v>0.5720000000000001</v>
+      </c>
+      <c r="P38">
+        <v>1.406</v>
+      </c>
+      <c r="Q38">
+        <v>1.117</v>
+      </c>
+      <c r="R38">
+        <v>3.107</v>
+      </c>
+      <c r="S38">
+        <v>7.879999999999999e-13</v>
+      </c>
+      <c r="T38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39">
+        <v>18.795</v>
+      </c>
+      <c r="E39">
+        <v>45.306</v>
+      </c>
+      <c r="F39">
+        <v>27.2</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0.457</v>
+      </c>
+      <c r="L39">
+        <v>1.43</v>
+      </c>
+      <c r="M39">
+        <v>1.466</v>
+      </c>
+      <c r="N39">
+        <v>0.6459999999999999</v>
+      </c>
+      <c r="O39">
+        <v>1.22</v>
+      </c>
+      <c r="P39">
+        <v>0.5820000000000001</v>
+      </c>
+      <c r="Q39">
+        <v>0.754</v>
+      </c>
+      <c r="R39">
+        <v>0.457</v>
+      </c>
+      <c r="S39">
+        <v>0.00193</v>
+      </c>
+      <c r="T39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40">
+        <v>39.002</v>
+      </c>
+      <c r="E40">
+        <v>-2</v>
+      </c>
+      <c r="F40">
+        <v>2.3</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K40">
+        <v>2.606</v>
+      </c>
+      <c r="L40">
+        <v>0.31</v>
+      </c>
+      <c r="M40">
+        <v>0.338</v>
+      </c>
+      <c r="N40">
+        <v>1.881</v>
+      </c>
+      <c r="O40">
+        <v>0.589</v>
+      </c>
+      <c r="P40">
+        <v>1.671</v>
+      </c>
+      <c r="Q40">
+        <v>1.433</v>
+      </c>
+      <c r="R40">
+        <v>3.219</v>
+      </c>
+      <c r="S40">
+        <v>0.00671</v>
+      </c>
+      <c r="T40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41">
+        <v>613.38</v>
+      </c>
+      <c r="E41">
+        <v>14.274</v>
+      </c>
+      <c r="F41">
+        <v>1.2</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>0.8540000000000001</v>
+      </c>
+      <c r="K41">
+        <v>2.733</v>
+      </c>
+      <c r="L41">
+        <v>0.706</v>
+      </c>
+      <c r="M41">
+        <v>0.6629999999999999</v>
+      </c>
+      <c r="N41">
+        <v>1.43</v>
+      </c>
+      <c r="O41">
+        <v>0.581</v>
+      </c>
+      <c r="P41">
+        <v>1.164</v>
+      </c>
+      <c r="Q41">
+        <v>1.172</v>
+      </c>
+      <c r="R41">
+        <v>3.2</v>
+      </c>
+      <c r="S41">
+        <v>6.34e-05</v>
+      </c>
+      <c r="T41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42">
+        <v>41.806</v>
+      </c>
+      <c r="E42">
+        <v>116.85</v>
+      </c>
+      <c r="F42">
+        <v>26.8</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>19</v>
+      </c>
+      <c r="J42">
+        <v>1.181</v>
+      </c>
+      <c r="K42">
+        <v>0.555</v>
+      </c>
+      <c r="L42">
+        <v>1.07</v>
+      </c>
+      <c r="M42">
+        <v>1.075</v>
+      </c>
+      <c r="N42">
+        <v>0.82</v>
+      </c>
+      <c r="O42">
+        <v>1.14</v>
+      </c>
+      <c r="P42">
+        <v>1.074</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>0.47</v>
+      </c>
+      <c r="S42">
+        <v>0.00507</v>
+      </c>
+      <c r="T42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43">
+        <v>42.848</v>
+      </c>
+      <c r="E43">
+        <v>12.836</v>
+      </c>
+      <c r="F43">
+        <v>5.4</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>0.9440000000000001</v>
+      </c>
+      <c r="K43">
+        <v>2.009</v>
+      </c>
+      <c r="L43">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="M43">
+        <v>0.536</v>
+      </c>
+      <c r="N43">
+        <v>1.529</v>
+      </c>
+      <c r="O43">
+        <v>0.914</v>
+      </c>
+      <c r="P43">
+        <v>1.393</v>
+      </c>
+      <c r="Q43">
+        <v>1.349</v>
+      </c>
+      <c r="R43">
+        <v>2.128</v>
+      </c>
+      <c r="S43">
+        <v>0.00203</v>
+      </c>
+      <c r="T43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44">
+        <v>65.41800000000001</v>
+      </c>
+      <c r="E44">
+        <v>10.329</v>
+      </c>
+      <c r="F44">
+        <v>4.9</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>0.8759999999999999</v>
+      </c>
+      <c r="K44">
+        <v>2.394</v>
+      </c>
+      <c r="L44">
+        <v>0.412</v>
+      </c>
+      <c r="M44">
+        <v>0.398</v>
+      </c>
+      <c r="N44">
+        <v>1.538</v>
+      </c>
+      <c r="O44">
+        <v>0.772</v>
+      </c>
+      <c r="P44">
+        <v>1.545</v>
+      </c>
+      <c r="Q44">
+        <v>1.415</v>
+      </c>
+      <c r="R44">
+        <v>2.731</v>
+      </c>
+      <c r="S44">
+        <v>0.0106</v>
+      </c>
+      <c r="T44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45">
+        <v>312.15</v>
+      </c>
+      <c r="E45">
+        <v>176.97</v>
+      </c>
+      <c r="F45">
+        <v>10.5</v>
+      </c>
+      <c r="G45">
+        <v>26</v>
+      </c>
+      <c r="H45">
+        <v>26</v>
+      </c>
+      <c r="I45">
+        <v>32</v>
+      </c>
+      <c r="J45">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="K45">
+        <v>2.106</v>
+      </c>
+      <c r="L45">
+        <v>0.578</v>
+      </c>
+      <c r="M45">
+        <v>0.605</v>
+      </c>
+      <c r="N45">
+        <v>1.574</v>
+      </c>
+      <c r="O45">
+        <v>0.862</v>
+      </c>
+      <c r="P45">
+        <v>1.073</v>
+      </c>
+      <c r="Q45">
+        <v>1.16</v>
+      </c>
+      <c r="R45">
+        <v>2.12</v>
+      </c>
+      <c r="S45">
+        <v>1.9e-21</v>
+      </c>
+      <c r="T45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T2"/>
   <sheetViews>
@@ -8877,10 +11701,10 @@
         <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>23</v>
@@ -8888,13 +11712,13 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D2">
         <v>58.768</v>
@@ -8942,7 +11766,7 @@
         <v>0.468</v>
       </c>
       <c r="S2">
-        <v>0.02154495</v>
+        <v>0.0215</v>
       </c>
       <c r="T2" t="s">
         <v>156</v>
@@ -8953,7 +11777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T21"/>
   <sheetViews>
@@ -9014,10 +11838,10 @@
         <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>23</v>
@@ -9079,7 +11903,7 @@
         <v>2.589</v>
       </c>
       <c r="S2">
-        <v>0.02103578</v>
+        <v>0.021</v>
       </c>
       <c r="T2" t="s">
         <v>155</v>
@@ -9141,7 +11965,7 @@
         <v>3.471</v>
       </c>
       <c r="S3">
-        <v>0.0384403</v>
+        <v>0.0384</v>
       </c>
       <c r="T3" t="s">
         <v>155</v>
@@ -9149,13 +11973,13 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D4">
         <v>187.15</v>
@@ -9203,7 +12027,7 @@
         <v>2.844</v>
       </c>
       <c r="S4">
-        <v>0.001836838</v>
+        <v>0.00184</v>
       </c>
       <c r="T4" t="s">
         <v>155</v>
@@ -9265,7 +12089,7 @@
         <v>0.219</v>
       </c>
       <c r="S5">
-        <v>0.002001134</v>
+        <v>0.002</v>
       </c>
       <c r="T5" t="s">
         <v>156</v>
@@ -9327,7 +12151,7 @@
         <v>5.926</v>
       </c>
       <c r="S6">
-        <v>0.02757336</v>
+        <v>0.0276</v>
       </c>
       <c r="T6" t="s">
         <v>155</v>
@@ -9389,7 +12213,7 @@
         <v>3.066</v>
       </c>
       <c r="S7">
-        <v>0.0329553</v>
+        <v>0.033</v>
       </c>
       <c r="T7" t="s">
         <v>155</v>
@@ -9451,7 +12275,7 @@
         <v>5.907999999999999</v>
       </c>
       <c r="S8">
-        <v>0.04831658</v>
+        <v>0.0483</v>
       </c>
       <c r="T8" t="s">
         <v>155</v>
@@ -9513,7 +12337,7 @@
         <v>4.36</v>
       </c>
       <c r="S9">
-        <v>0.0330075</v>
+        <v>0.033</v>
       </c>
       <c r="T9" t="s">
         <v>155</v>
@@ -9521,13 +12345,13 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C10" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D10">
         <v>47.222</v>
@@ -9575,7 +12399,7 @@
         <v>0.126</v>
       </c>
       <c r="S10">
-        <v>0.03687869</v>
+        <v>0.0369</v>
       </c>
       <c r="T10" t="s">
         <v>156</v>
@@ -9583,13 +12407,13 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B11" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C11" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D11">
         <v>11.025</v>
@@ -9637,7 +12461,7 @@
         <v>2.493</v>
       </c>
       <c r="S11">
-        <v>0.008425054</v>
+        <v>0.00843</v>
       </c>
       <c r="T11" t="s">
         <v>155</v>
@@ -9645,13 +12469,13 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B12" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C12" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D12">
         <v>40.936</v>
@@ -9699,7 +12523,7 @@
         <v>2.533</v>
       </c>
       <c r="S12">
-        <v>0.002049293</v>
+        <v>0.00205</v>
       </c>
       <c r="T12" t="s">
         <v>155</v>
@@ -9761,7 +12585,7 @@
         <v>2.508</v>
       </c>
       <c r="S13">
-        <v>0.03914309</v>
+        <v>0.0391</v>
       </c>
       <c r="T13" t="s">
         <v>155</v>
@@ -9823,7 +12647,7 @@
         <v>2.338</v>
       </c>
       <c r="S14">
-        <v>0.04244455</v>
+        <v>0.0424</v>
       </c>
       <c r="T14" t="s">
         <v>155</v>
@@ -9885,7 +12709,7 @@
         <v>0.468</v>
       </c>
       <c r="S15">
-        <v>0.003954758</v>
+        <v>0.00395</v>
       </c>
       <c r="T15" t="s">
         <v>156</v>
@@ -9893,13 +12717,13 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B16" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C16" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D16">
         <v>13.293</v>
@@ -9947,7 +12771,7 @@
         <v>0.4320000000000001</v>
       </c>
       <c r="S16">
-        <v>0.005235877</v>
+        <v>0.00524</v>
       </c>
       <c r="T16" t="s">
         <v>156</v>
@@ -9955,13 +12779,13 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B17" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C17" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D17">
         <v>23.432</v>
@@ -10009,7 +12833,7 @@
         <v>0.369</v>
       </c>
       <c r="S17">
-        <v>0.03335983</v>
+        <v>0.0334</v>
       </c>
       <c r="T17" t="s">
         <v>156</v>
@@ -10071,7 +12895,7 @@
         <v>2.512</v>
       </c>
       <c r="S18">
-        <v>0.02887799</v>
+        <v>0.0289</v>
       </c>
       <c r="T18" t="s">
         <v>155</v>
@@ -10079,13 +12903,13 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B19" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C19" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D19">
         <v>79.676</v>
@@ -10133,7 +12957,7 @@
         <v>0.411</v>
       </c>
       <c r="S19">
-        <v>0.01858813</v>
+        <v>0.0186</v>
       </c>
       <c r="T19" t="s">
         <v>156</v>
@@ -10141,13 +12965,13 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B20" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C20" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D20">
         <v>70.253</v>
@@ -10195,7 +13019,7 @@
         <v>2.869</v>
       </c>
       <c r="S20">
-        <v>0.001805311</v>
+        <v>0.00181</v>
       </c>
       <c r="T20" t="s">
         <v>155</v>
@@ -10203,13 +13027,13 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B21" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C21" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D21">
         <v>41.489</v>
@@ -10257,7 +13081,7 @@
         <v>0.478</v>
       </c>
       <c r="S21">
-        <v>0.02689152</v>
+        <v>0.0269</v>
       </c>
       <c r="T21" t="s">
         <v>156</v>
